--- a/ExcelTemplates/getSiemensQC_PET_template.xlsx
+++ b/ExcelTemplates/getSiemensQC_PET_template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Felles\Straalevern\Kvalitetskontroll\IDL_programmer\git\getSiemensQC\ExcelTemplates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="210" windowWidth="28515" windowHeight="12210"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Tabell" sheetId="1" r:id="rId1"/>
     <sheet name="Diagrammer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -65,12 +70,6 @@
     <t>[mm]</t>
   </si>
   <si>
-    <t>first date</t>
-  </si>
-  <si>
-    <t>last date</t>
-  </si>
-  <si>
     <t>Partial</t>
   </si>
   <si>
@@ -85,11 +84,14 @@
   <si>
     <t>relativ ECF</t>
   </si>
+  <si>
+    <t>ICS Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
   </numFmts>
@@ -213,12 +215,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -279,16 +284,19 @@
             <c:strRef>
               <c:f>Tabell!$G$2:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Measured Randoms [%]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Measured Randoms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[%]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -305,6 +313,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AB4-49C5-8D27-2E184CC6EE41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -317,7 +330,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -346,6 +359,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AB4-49C5-8D27-2E184CC6EE41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -358,7 +376,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -387,6 +405,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AB4-49C5-8D27-2E184CC6EE41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -446,7 +469,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -501,16 +524,19 @@
             <c:strRef>
               <c:f>Tabell!$I$2:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scatter Ratio [%]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scatter Ratio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[%]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -527,6 +553,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E95C-49BF-8920-81EDCB52780F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -539,7 +570,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -568,6 +599,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E95C-49BF-8920-81EDCB52780F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -580,7 +616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -609,6 +645,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E95C-49BF-8920-81EDCB52780F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -668,7 +709,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -728,16 +769,19 @@
             <c:strRef>
               <c:f>Tabell!$H$2:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scanner Efficiency [cps/Bq/cc]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scanner Efficiency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[cps/Bq/cc]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -754,6 +798,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ABF-4A18-BBC4-2675F43D8B5E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -766,7 +815,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -795,6 +844,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9ABF-4A18-BBC4-2675F43D8B5E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -807,7 +861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -836,6 +890,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9ABF-4A18-BBC4-2675F43D8B5E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -895,7 +954,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -955,16 +1014,19 @@
             <c:strRef>
               <c:f>Tabell!$J$2:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ECF [Bq*s/ECAT counts]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ECF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[Bq*s/ECAT counts]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -981,6 +1043,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E80D-4FFE-9AA6-E75F949BB36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -993,7 +1060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1022,6 +1089,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E80D-4FFE-9AA6-E75F949BB36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1034,7 +1106,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1063,6 +1135,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E80D-4FFE-9AA6-E75F949BB36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1122,7 +1199,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1177,16 +1254,19 @@
             <c:strRef>
               <c:f>Tabell!$K$2:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time Alignment Residual [mm]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time Alignment Residual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[mm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1203,6 +1283,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A3E-4B87-B504-8813AB28E3D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1215,7 +1300,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1244,6 +1329,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A3E-4B87-B504-8813AB28E3D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1256,7 +1346,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1285,6 +1375,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A3E-4B87-B504-8813AB28E3D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1344,7 +1439,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1404,16 +1499,19 @@
             <c:strRef>
               <c:f>Tabell!$L$2:$L$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time Alignment fit x [mm]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time Alignment fit x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[mm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1430,6 +1528,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A997-4CAD-A4B4-00CC7802B54D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1442,7 +1545,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1471,6 +1574,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A997-4CAD-A4B4-00CC7802B54D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1483,7 +1591,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$4:$B$5</c:f>
+              <c:f>Tabell!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1512,6 +1620,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A997-4CAD-A4B4-00CC7802B54D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1520,16 +1633,19 @@
             <c:strRef>
               <c:f>Tabell!$M$2:$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time Alignment fit y [mm]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time Alignment fit y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[mm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1546,6 +1662,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A997-4CAD-A4B4-00CC7802B54D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1620,7 +1741,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1675,16 +1796,19 @@
             <c:strRef>
               <c:f>Tabell!$N$2:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Phantom Pos x [mm]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Phantom Pos x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[mm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1701,6 +1825,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04E4-4E78-8588-41D154D3627C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1709,16 +1838,19 @@
             <c:strRef>
               <c:f>Tabell!$O$2:$O$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Phantom Pos y [mm]</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Phantom Pos y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[mm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1735,6 +1867,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04E4-4E78-8588-41D154D3627C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1808,7 +1945,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1832,7 +1969,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nb-NO" sz="1600" baseline="0"/>
-              <a:t>ECF relativt startverdi</a:t>
+              <a:t>ECF relative to startvalue</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO" sz="1600"/>
           </a:p>
@@ -1873,7 +2010,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabell!$B$6:$B$149</c:f>
+              <c:f>Tabell!$A$6:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1890,6 +2027,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B77-416E-A927-D3770D6771FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2253,7 +2395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2288,7 +2430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2499,10 +2641,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,20 +2662,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="19" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>1</v>
@@ -2564,7 +2709,7 @@
       </c>
       <c r="P2" s="20"/>
       <c r="R2" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2602,13 +2747,11 @@
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <f>MINA(B6:B93)</f>
+      <c r="A4" s="10">
+        <f>MINA(A6:A93)</f>
         <v>0</v>
       </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2641,13 +2784,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="15">
-        <f>MAXA(B7:B94)</f>
+      <c r="A5" s="15">
+        <f>MAXA(A7:A94)</f>
         <v>0</v>
       </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -2680,6 +2821,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2689,6 +2831,7 @@
       <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2698,6 +2841,7 @@
       <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2707,6 +2851,7 @@
       <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2716,6 +2861,7 @@
       <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2725,6 +2871,7 @@
       <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2734,6 +2881,7 @@
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2743,6 +2891,7 @@
       <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2752,6 +2901,7 @@
       <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2761,6 +2911,7 @@
       <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2770,6 +2921,7 @@
       <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2778,7 +2930,8 @@
       <c r="J16" s="5"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2787,7 +2940,8 @@
       <c r="J17" s="5"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2796,7 +2950,8 @@
       <c r="J18" s="5"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2805,7 +2960,8 @@
       <c r="J19" s="5"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2814,7 +2970,8 @@
       <c r="J20" s="5"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2823,7 +2980,8 @@
       <c r="J21" s="5"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2832,7 +2990,8 @@
       <c r="J22" s="5"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2841,7 +3000,8 @@
       <c r="J23" s="5"/>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2850,7 +3010,8 @@
       <c r="J24" s="5"/>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2859,142 +3020,170 @@
       <c r="J25" s="5"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="J26" s="5"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="J27" s="5"/>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="J28" s="5"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="J29" s="5"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="J30" s="5"/>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="J31" s="5"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="J32" s="5"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="J33" s="5"/>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="J34" s="5"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="J35" s="5"/>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="J36" s="5"/>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="J37" s="5"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="J38" s="5"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="J39" s="5"/>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="J40" s="5"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="J41" s="5"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="J42" s="5"/>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="J43" s="5"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="J44" s="5"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="J45" s="5"/>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="J46" s="5"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="J47" s="5"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="J48" s="5"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="J49" s="5"/>
       <c r="R49" s="21"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="J50" s="5"/>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="J51" s="5"/>
       <c r="R51" s="21"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="J52" s="5"/>
       <c r="R52" s="21"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="J53" s="5"/>
       <c r="R53" s="21"/>
@@ -3009,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
